--- a/Datasets/Amy_Excel.xlsx
+++ b/Datasets/Amy_Excel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25c68ebca75fcc76/Documents/Data_Analytics_Bootcamp/Class_Challenges/Module_7_Project_1_Files/group8_data_project_1/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{705948F6-2523-408A-A50C-EE8ECBC342E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:40009_{705948F6-2523-408A-A50C-EE8ECBC342E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4FB6347-762A-43F5-A10C-52EE7026C851}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="723" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="723" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Median_Sales_Price_Houses_US" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$M$63</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -699,15 +710,15 @@
     <t>increase</t>
   </si>
   <si>
-    <t>B + (B * G)</t>
+    <t>2023 House Cost Adjusted: B + (B * G)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1232,7 +1243,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1241,13 +1252,13 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="34" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="16" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,7 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,7 +1342,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="amy johnson" refreshedDate="45605.595960648148" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="247">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="amy johnson" refreshedDate="45605.595960648148" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="247" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B248" sheet="Median_Sales_Price_Houses_US"/>
   </cacheSource>
@@ -2696,7 +2707,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField numFmtId="14" showAll="0">
@@ -3308,7 +3319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5311,7 +5322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:C66"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -6094,7 +6105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -6597,7 +6608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8169,15 +8180,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -8189,11 +8200,12 @@
     <col min="5" max="5" width="31" style="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="16.77734375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="27.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="6"/>
+    <col min="8" max="8" width="37.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>210</v>
       </c>
@@ -8219,7 +8231,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1984</v>
       </c>
@@ -8245,8 +8257,10 @@
         <f>B2+(B2*G2)</f>
         <v>172368.00000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1985</v>
       </c>
@@ -8275,11 +8289,12 @@
         <v>1.0890000000000004</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H41" si="1">B3+(B3*G3)</f>
+        <f>B3+(B3*G3)</f>
         <v>181325.20000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>1986</v>
       </c>
@@ -8288,7 +8303,7 @@
         <v>95000</v>
       </c>
       <c r="C4" s="21">
-        <f t="shared" ref="C4:C41" si="2">1-B3/B4</f>
+        <f t="shared" ref="C4:C41" si="1">1-B3/B4</f>
         <v>8.6315789473684235E-2</v>
       </c>
       <c r="D4" s="19">
@@ -8296,7 +8311,7 @@
         <v>62280</v>
       </c>
       <c r="E4" s="21">
-        <f t="shared" ref="E4:E41" si="3">1-D3/D4</f>
+        <f t="shared" ref="E4:E41" si="2">1-D3/D4</f>
         <v>3.5806037251123968E-2</v>
       </c>
       <c r="F4" s="20">
@@ -8308,11 +8323,11 @@
         <v>1.0510000000000004</v>
       </c>
       <c r="H4" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H3:H41" si="3">B4+(B4*G4)</f>
         <v>194845.00000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>1987</v>
       </c>
@@ -8321,7 +8336,7 @@
         <v>111500</v>
       </c>
       <c r="C5" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.14798206278026904</v>
       </c>
       <c r="D5" s="19">
@@ -8329,7 +8344,7 @@
         <v>63060</v>
       </c>
       <c r="E5" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2369172216936231E-2</v>
       </c>
       <c r="F5" s="20">
@@ -8341,11 +8356,11 @@
         <v>1.0400000000000005</v>
       </c>
       <c r="H5" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>227460.00000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>1988</v>
       </c>
@@ -8354,7 +8369,7 @@
         <v>115000</v>
       </c>
       <c r="C6" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0434782608695699E-2</v>
       </c>
       <c r="D6" s="19">
@@ -8362,7 +8377,7 @@
         <v>63530</v>
       </c>
       <c r="E6" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.3980796474106825E-3</v>
       </c>
       <c r="F6" s="20">
@@ -8374,11 +8389,11 @@
         <v>0.99600000000000044</v>
       </c>
       <c r="H6" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>229540.00000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1989</v>
       </c>
@@ -8387,7 +8402,7 @@
         <v>124800</v>
       </c>
       <c r="C7" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.852564102564108E-2</v>
       </c>
       <c r="D7" s="19">
@@ -8395,7 +8410,7 @@
         <v>64610</v>
       </c>
       <c r="E7" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.6715678687509672E-2</v>
       </c>
       <c r="F7" s="20">
@@ -8407,11 +8422,12 @@
         <v>0.9520000000000004</v>
       </c>
       <c r="H7" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>243609.60000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>1990</v>
       </c>
@@ -8420,7 +8436,7 @@
         <v>126800</v>
       </c>
       <c r="C8" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5772870662460581E-2</v>
       </c>
       <c r="D8" s="19">
@@ -8428,7 +8444,7 @@
         <v>63830</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.2219959266802416E-2</v>
       </c>
       <c r="F8" s="20">
@@ -8440,11 +8456,11 @@
         <v>0.90600000000000036</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>241680.80000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>1991</v>
       </c>
@@ -8453,7 +8469,7 @@
         <v>120000</v>
       </c>
       <c r="C9" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-5.6666666666666643E-2</v>
       </c>
       <c r="D9" s="19">
@@ -8461,7 +8477,7 @@
         <v>61960</v>
       </c>
       <c r="E9" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.0180761781794629E-2</v>
       </c>
       <c r="F9" s="20">
@@ -8473,11 +8489,11 @@
         <v>0.84500000000000042</v>
       </c>
       <c r="H9" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>221400.00000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>1992</v>
       </c>
@@ -8486,7 +8502,7 @@
         <v>126000</v>
       </c>
       <c r="C10" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="D10" s="19">
@@ -8494,7 +8510,7 @@
         <v>61450</v>
       </c>
       <c r="E10" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-8.2994304312449252E-3</v>
       </c>
       <c r="F10" s="20">
@@ -8506,11 +8522,11 @@
         <v>0.81400000000000039</v>
       </c>
       <c r="H10" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>228564.00000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>1993</v>
       </c>
@@ -8519,7 +8535,7 @@
         <v>127000</v>
       </c>
       <c r="C11" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.8740157480314821E-3</v>
       </c>
       <c r="D11" s="19">
@@ -8527,7 +8543,7 @@
         <v>61150</v>
       </c>
       <c r="E11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4.9059689288635244E-3</v>
       </c>
       <c r="F11" s="20">
@@ -8539,11 +8555,11 @@
         <v>0.78500000000000036</v>
       </c>
       <c r="H11" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>226695.00000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>1994</v>
       </c>
@@ -8552,7 +8568,7 @@
         <v>132000</v>
       </c>
       <c r="C12" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.7878787878787845E-2</v>
       </c>
       <c r="D12" s="19">
@@ -8560,7 +8576,7 @@
         <v>61800</v>
       </c>
       <c r="E12" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0517799352750767E-2</v>
       </c>
       <c r="F12" s="20">
@@ -8572,11 +8588,11 @@
         <v>0.75800000000000034</v>
       </c>
       <c r="H12" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>232056.00000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>1995</v>
       </c>
@@ -8585,7 +8601,7 @@
         <v>138000</v>
       </c>
       <c r="C13" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3478260869565188E-2</v>
       </c>
       <c r="D13" s="19">
@@ -8593,7 +8609,7 @@
         <v>63770</v>
       </c>
       <c r="E13" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.0892269092049562E-2</v>
       </c>
       <c r="F13" s="20">
@@ -8605,11 +8621,11 @@
         <v>0.73100000000000032</v>
       </c>
       <c r="H13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>238878.00000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>1996</v>
       </c>
@@ -8618,7 +8634,7 @@
         <v>144100</v>
       </c>
       <c r="C14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2331714087439298E-2</v>
       </c>
       <c r="D14" s="19">
@@ -8626,7 +8642,7 @@
         <v>64710</v>
       </c>
       <c r="E14" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4526348323288474E-2</v>
       </c>
       <c r="F14" s="20">
@@ -8638,11 +8654,11 @@
         <v>0.70600000000000029</v>
       </c>
       <c r="H14" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>245834.60000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>1997</v>
       </c>
@@ -8651,7 +8667,7 @@
         <v>145800</v>
       </c>
       <c r="C15" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1659807956104218E-2</v>
       </c>
       <c r="D15" s="19">
@@ -8659,7 +8675,7 @@
         <v>66050</v>
       </c>
       <c r="E15" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.0287660862982615E-2</v>
       </c>
       <c r="F15" s="20">
@@ -8671,11 +8687,11 @@
         <v>0.67300000000000026</v>
       </c>
       <c r="H15" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>243923.40000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>1998</v>
       </c>
@@ -8684,7 +8700,7 @@
         <v>153000</v>
       </c>
       <c r="C16" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.705882352941182E-2</v>
       </c>
       <c r="D16" s="19">
@@ -8692,7 +8708,7 @@
         <v>68470</v>
       </c>
       <c r="E16" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.5343946253833747E-2</v>
       </c>
       <c r="F16" s="20">
@@ -8704,7 +8720,7 @@
         <v>0.65600000000000025</v>
       </c>
       <c r="H16" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>253368.00000000006</v>
       </c>
     </row>
@@ -8717,7 +8733,7 @@
         <v>165300</v>
       </c>
       <c r="C17" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.4410163339382995E-2</v>
       </c>
       <c r="D17" s="19">
@@ -8725,7 +8741,7 @@
         <v>70210</v>
       </c>
       <c r="E17" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.478279447372167E-2</v>
       </c>
       <c r="F17" s="20">
@@ -8737,7 +8753,7 @@
         <v>0.64000000000000024</v>
       </c>
       <c r="H17" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>271092.00000000006</v>
       </c>
     </row>
@@ -8750,7 +8766,7 @@
         <v>172900</v>
       </c>
       <c r="C18" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3956043956043911E-2</v>
       </c>
       <c r="D18" s="19">
@@ -8758,7 +8774,7 @@
         <v>70020</v>
       </c>
       <c r="E18" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.7135104255926468E-3</v>
       </c>
       <c r="F18" s="20">
@@ -8770,7 +8786,7 @@
         <v>0.61300000000000021</v>
       </c>
       <c r="H18" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>278887.70000000007</v>
       </c>
     </row>
@@ -8783,7 +8799,7 @@
         <v>179000</v>
       </c>
       <c r="C19" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.4078212290502785E-2</v>
       </c>
       <c r="D19" s="19">
@@ -8791,7 +8807,7 @@
         <v>68870</v>
       </c>
       <c r="E19" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.6698126905764443E-2</v>
       </c>
       <c r="F19" s="20">
@@ -8803,7 +8819,7 @@
         <v>0.57900000000000018</v>
       </c>
       <c r="H19" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>282641</v>
       </c>
     </row>
@@ -8816,7 +8832,7 @@
         <v>190100</v>
       </c>
       <c r="C20" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.8390320883745406E-2</v>
       </c>
       <c r="D20" s="19">
@@ -8824,7 +8840,7 @@
         <v>68310</v>
       </c>
       <c r="E20" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-8.1979212413993974E-3</v>
       </c>
       <c r="F20" s="20">
@@ -8836,7 +8852,7 @@
         <v>0.56300000000000017</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>297126.30000000005</v>
       </c>
     </row>
@@ -8849,7 +8865,7 @@
         <v>198800</v>
       </c>
       <c r="C21" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3762575452716335E-2</v>
       </c>
       <c r="D21" s="19">
@@ -8857,7 +8873,7 @@
         <v>68350</v>
       </c>
       <c r="E21" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.8522311631314938E-4</v>
       </c>
       <c r="F21" s="20">
@@ -8869,7 +8885,7 @@
         <v>0.53900000000000015</v>
       </c>
       <c r="H21" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>305953.2</v>
       </c>
     </row>
@@ -8882,7 +8898,7 @@
         <v>228800</v>
       </c>
       <c r="C22" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.13111888111888115</v>
       </c>
       <c r="D22" s="19">
@@ -8890,7 +8906,7 @@
         <v>68250</v>
       </c>
       <c r="E22" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.46520146520146E-3</v>
       </c>
       <c r="F22" s="20">
@@ -8902,7 +8918,7 @@
         <v>0.52000000000000013</v>
       </c>
       <c r="H22" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>347776</v>
       </c>
     </row>
@@ -8915,7 +8931,7 @@
         <v>243600</v>
       </c>
       <c r="C23" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.075533661740562E-2</v>
       </c>
       <c r="D23" s="19">
@@ -8923,7 +8939,7 @@
         <v>69310</v>
       </c>
       <c r="E23" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5293608425912542E-2</v>
       </c>
       <c r="F23" s="20">
@@ -8935,7 +8951,7 @@
         <v>0.4870000000000001</v>
       </c>
       <c r="H23" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>362233.2</v>
       </c>
     </row>
@@ -8948,7 +8964,7 @@
         <v>247700</v>
       </c>
       <c r="C24" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6552280985062562E-2</v>
       </c>
       <c r="D24" s="19">
@@ -8956,7 +8972,7 @@
         <v>70080</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0987442922374413E-2</v>
       </c>
       <c r="F24" s="20">
@@ -8968,7 +8984,7 @@
         <v>0.45300000000000012</v>
       </c>
       <c r="H24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>359908.10000000003</v>
       </c>
     </row>
@@ -8981,7 +8997,7 @@
         <v>257400</v>
       </c>
       <c r="C25" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.7684537684537722E-2</v>
       </c>
       <c r="D25" s="19">
@@ -8989,7 +9005,7 @@
         <v>71210</v>
       </c>
       <c r="E25" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5868557786827719E-2</v>
       </c>
       <c r="F25" s="20">
@@ -9001,7 +9017,7 @@
         <v>0.4280000000000001</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>367567.2</v>
       </c>
     </row>
@@ -9014,7 +9030,7 @@
         <v>235300</v>
       </c>
       <c r="C26" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-9.3922651933701751E-2</v>
       </c>
       <c r="D26" s="19">
@@ -9022,7 +9038,7 @@
         <v>68780</v>
       </c>
       <c r="E26" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.5330037801686531E-2</v>
       </c>
       <c r="F26" s="20">
@@ -9034,7 +9050,7 @@
         <v>0.38700000000000012</v>
       </c>
       <c r="H26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>326361.10000000003</v>
       </c>
     </row>
@@ -9047,7 +9063,7 @@
         <v>220900</v>
       </c>
       <c r="C27" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-6.5187867813490286E-2</v>
       </c>
       <c r="D27" s="19">
@@ -9055,7 +9071,7 @@
         <v>68340</v>
       </c>
       <c r="E27" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-6.4383962540239814E-3</v>
       </c>
       <c r="F27" s="20">
@@ -9067,7 +9083,7 @@
         <v>0.38600000000000012</v>
       </c>
       <c r="H27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>306167.40000000002</v>
       </c>
     </row>
@@ -9080,7 +9096,7 @@
         <v>224300</v>
       </c>
       <c r="C28" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5158270173874278E-2</v>
       </c>
       <c r="D28" s="19">
@@ -9088,7 +9104,7 @@
         <v>66730</v>
       </c>
       <c r="E28" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.4127079274689045E-2</v>
       </c>
       <c r="F28" s="20">
@@ -9100,7 +9116,7 @@
         <v>0.3590000000000001</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>304823.7</v>
       </c>
     </row>
@@ -9113,7 +9129,7 @@
         <v>228100</v>
       </c>
       <c r="C29" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6659359929855344E-2</v>
       </c>
       <c r="D29" s="19">
@@ -9121,7 +9137,7 @@
         <v>65750</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.4904942965779489E-2</v>
       </c>
       <c r="F29" s="20">
@@ -9133,7 +9149,7 @@
         <v>0.34400000000000008</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>306566.40000000002</v>
       </c>
     </row>
@@ -9146,7 +9162,7 @@
         <v>251700</v>
       </c>
       <c r="C30" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.3762415574096147E-2</v>
       </c>
       <c r="D30" s="19">
@@ -9154,7 +9170,7 @@
         <v>65740</v>
       </c>
       <c r="E30" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.5211439002138505E-4</v>
       </c>
       <c r="F30" s="20">
@@ -9166,7 +9182,7 @@
         <v>0.31400000000000006</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>330733.80000000005</v>
       </c>
     </row>
@@ -9179,7 +9195,7 @@
         <v>273600</v>
       </c>
       <c r="C31" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.0043859649122862E-2</v>
       </c>
       <c r="D31" s="19">
@@ -9187,7 +9203,7 @@
         <v>68220</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.635297566695983E-2</v>
       </c>
       <c r="F31" s="20">
@@ -9199,7 +9215,7 @@
         <v>0.29700000000000004</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>354859.2</v>
       </c>
     </row>
@@ -9212,7 +9228,7 @@
         <v>298900</v>
       </c>
       <c r="C32" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.464369354299095E-2</v>
       </c>
       <c r="D32" s="19">
@@ -9220,7 +9236,7 @@
         <v>67360</v>
       </c>
       <c r="E32" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.2767220902612841E-2</v>
       </c>
       <c r="F32" s="20">
@@ -9232,11 +9248,11 @@
         <v>0.28200000000000003</v>
       </c>
       <c r="H32" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>383189.8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>2015</v>
       </c>
@@ -9245,7 +9261,7 @@
         <v>302500</v>
       </c>
       <c r="C33" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1900826446280988E-2</v>
       </c>
       <c r="D33" s="19">
@@ -9253,7 +9269,7 @@
         <v>71000</v>
       </c>
       <c r="E33" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.1267605633802837E-2</v>
       </c>
       <c r="F33" s="20">
@@ -9265,11 +9281,11 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="H33" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>385385</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>2016</v>
       </c>
@@ -9278,7 +9294,7 @@
         <v>310900</v>
       </c>
       <c r="C34" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.7018333869411437E-2</v>
       </c>
       <c r="D34" s="19">
@@ -9286,7 +9302,7 @@
         <v>73520</v>
       </c>
       <c r="E34" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.4276387377584316E-2</v>
       </c>
       <c r="F34" s="20">
@@ -9298,11 +9314,11 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="H34" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>393910.3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>2017</v>
       </c>
@@ -9311,7 +9327,7 @@
         <v>337900</v>
       </c>
       <c r="C35" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.9905297425273747E-2</v>
       </c>
       <c r="D35" s="19">
@@ -9319,7 +9335,7 @@
         <v>74810</v>
       </c>
       <c r="E35" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7243683999465298E-2</v>
       </c>
       <c r="F35" s="20">
@@ -9331,11 +9347,11 @@
         <v>0.246</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>421023.4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>2018</v>
       </c>
@@ -9344,7 +9360,7 @@
         <v>331800</v>
       </c>
       <c r="C36" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.8384569017480423E-2</v>
       </c>
       <c r="D36" s="19">
@@ -9352,7 +9368,7 @@
         <v>75790</v>
       </c>
       <c r="E36" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2930465760654486E-2</v>
       </c>
       <c r="F36" s="20">
@@ -9364,11 +9380,11 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="H36" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>406455</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>2019</v>
       </c>
@@ -9377,7 +9393,7 @@
         <v>327100</v>
       </c>
       <c r="C37" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.4368694588810849E-2</v>
       </c>
       <c r="D37" s="19">
@@ -9385,7 +9401,7 @@
         <v>81210</v>
       </c>
       <c r="E37" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.6740549193449072E-2</v>
       </c>
       <c r="F37" s="20">
@@ -9397,11 +9413,11 @@
         <v>0.20600000000000002</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>394482.6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>2020</v>
       </c>
@@ -9410,7 +9426,7 @@
         <v>338600</v>
       </c>
       <c r="C38" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.3963378617838158E-2</v>
       </c>
       <c r="D38" s="19">
@@ -9418,7 +9434,7 @@
         <v>79560</v>
       </c>
       <c r="E38" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.0739064856711842E-2</v>
       </c>
       <c r="F38" s="20">
@@ -9430,11 +9446,11 @@
         <v>0.18300000000000002</v>
       </c>
       <c r="H38" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>400563.8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>2021</v>
       </c>
@@ -9443,7 +9459,7 @@
         <v>414000</v>
       </c>
       <c r="C39" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18212560386473431</v>
       </c>
       <c r="D39" s="19">
@@ -9451,7 +9467,7 @@
         <v>79260</v>
       </c>
       <c r="E39" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-3.7850113550341735E-3</v>
       </c>
       <c r="F39" s="20">
@@ -9463,11 +9479,11 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>483966</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>2022</v>
       </c>
@@ -9476,7 +9492,7 @@
         <v>442600</v>
       </c>
       <c r="C40" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.4618165386353343E-2</v>
       </c>
       <c r="D40" s="19">
@@ -9484,7 +9500,7 @@
         <v>77540</v>
       </c>
       <c r="E40" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-2.2182099561516733E-2</v>
       </c>
       <c r="F40" s="20">
@@ -9496,11 +9512,11 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="H40" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>486417.4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>2023</v>
       </c>
@@ -9509,7 +9525,7 @@
         <v>435400</v>
       </c>
       <c r="C41" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.6536518144235179E-2</v>
       </c>
       <c r="D41" s="19">
@@ -9517,7 +9533,7 @@
         <v>80610</v>
       </c>
       <c r="E41" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.8084604887731022E-2</v>
       </c>
       <c r="F41" s="20">
@@ -9529,19 +9545,32 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>450203.6</v>
       </c>
+      <c r="I41" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M63"/>
+  <autoFilter ref="A1:M63" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9578,7 +9607,7 @@
         <v>195791</v>
       </c>
       <c r="D2">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D7" si="0">C2/B2</f>
         <v>9.9893367346938771</v>
       </c>
       <c r="E2">
@@ -9598,7 +9627,7 @@
         <v>206763</v>
       </c>
       <c r="D3">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>9.8929665071770341</v>
       </c>
       <c r="E3">
@@ -9618,7 +9647,7 @@
         <v>210613</v>
       </c>
       <c r="D4">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>9.7056682027649774</v>
       </c>
       <c r="E4">
@@ -9638,7 +9667,7 @@
         <v>213219</v>
       </c>
       <c r="D5">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>9.3517105263157898</v>
       </c>
       <c r="E5">
@@ -9658,7 +9687,7 @@
         <v>222765</v>
       </c>
       <c r="D6">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>9.1297131147540984</v>
       </c>
       <c r="E6">
@@ -9678,7 +9707,7 @@
         <v>235329</v>
       </c>
       <c r="D7">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>8.7158888888888892</v>
       </c>
     </row>
